--- a/Module 2 Everyday Excel Part 2/Week 1 files/Conditional drop-down lists.xlsx
+++ b/Module 2 Everyday Excel Part 2/Week 1 files/Conditional drop-down lists.xlsx
@@ -1,40 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie\Documents\MOOC Excel\Screencasts\Week 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\Week 1 files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8425F8-412C-4DB3-8C0D-BA38FD96D8CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E238117C-43BC-443F-B29B-3D67566782B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{01F53069-50CF-46B5-A62A-B991B0C172E2}"/>
+    <workbookView xWindow="1455" yWindow="3855" windowWidth="28500" windowHeight="14955" xr2:uid="{01F53069-50CF-46B5-A62A-B991B0C172E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="Appetizer">Sheet2!$A$8:$A$12</definedName>
+    <definedName name="Beverage">Sheet2!$B$8:$B$11</definedName>
+    <definedName name="Categories">Sheet2!$A$2:$A$5</definedName>
+    <definedName name="Dessert">Sheet2!$D$8:$D$10</definedName>
+    <definedName name="Main_course">Sheet2!$C$8:$C$11</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="36">
   <si>
     <t>Mickey Mouse</t>
   </si>
@@ -196,18 +195,32 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF3300"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF6600"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -527,22 +540,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2873892C-D1A2-43FE-BF66-4A4048FD27A5}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.46484375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.265625" customWidth="1"/>
-    <col min="5" max="5" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -553,201 +567,457 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="str">
+        <f ca="1">(VLOOKUP(C2,INDIRECT(SUBSTITUTE(B2," ","_")),1,FALSE))</f>
+        <v>Casserole</v>
+      </c>
+      <c r="F2" t="b">
+        <f ca="1">ISERROR((VLOOKUP(C2,INDIRECT(SUBSTITUTE(B2," ","_")),1,FALSE)))</f>
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
+        <f>NOT(ISBLANK(C2))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E22" ca="1" si="0">(VLOOKUP(C3,INDIRECT(SUBSTITUTE(B3," ","_")),1,FALSE))</f>
+        <v>Beer</v>
+      </c>
+      <c r="F3" t="b">
+        <f t="shared" ref="F3:F22" ca="1" si="1">ISERROR((VLOOKUP(C3,INDIRECT(SUBSTITUTE(B3," ","_")),1,FALSE)))</f>
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
+        <f t="shared" ref="G3:G22" si="2">NOT(ISBLANK(C3))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Wine</v>
+      </c>
+      <c r="F4" t="b">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Cake</v>
+      </c>
+      <c r="F5" t="b">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G5" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Cola</v>
+      </c>
+      <c r="F6" t="b">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F7" t="b">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F8" t="b">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F9" t="b">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F10" t="b">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F11" t="b">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F12" t="b">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="E13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F13" t="b">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="E14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F14" t="b">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="E15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F15" t="b">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="E16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F16" t="b">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="E17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F17" t="b">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F18" t="b">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F19" t="b">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F20" t="b">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F21" t="b">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>16</v>
       </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F22" t="b">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:C22">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>AND(ISERROR(VLOOKUP(C2,INDIRECT(SUBSTITUTE(B2," ","_")),1,FALSE)),NOT(ISBLANK(C2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B22" xr:uid="{31E64336-8A23-49E4-9889-C3A557FE838E}">
+      <formula1>Categories</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C22" xr:uid="{273BEA9E-A05D-4793-AFCA-89BC093B389F}">
+      <formula1>INDIRECT(SUBSTITUTE(B2," ","_"))</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -755,14 +1025,117 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ADAB877-0A38-45DB-AD7B-BE827842C066}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D7" sqref="D7:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>